--- a/DAFTAR_AKUN.xlsx
+++ b/DAFTAR_AKUN.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NERACA" sheetId="1" r:id="rId1"/>
     <sheet name="LABARUGI" sheetId="5" r:id="rId2"/>
+    <sheet name="Gabungan" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="83">
   <si>
     <t>no_akun</t>
   </si>
@@ -274,7 +275,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +289,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF235A81"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,10 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -619,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +674,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1000</v>
       </c>
@@ -683,6 +694,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>1100</v>
       </c>
@@ -700,6 +714,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>1110</v>
       </c>
@@ -717,6 +734,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>1110</v>
       </c>
@@ -740,6 +760,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>1110</v>
       </c>
@@ -763,6 +786,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>1111</v>
       </c>
@@ -780,6 +806,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>1111</v>
       </c>
@@ -803,6 +832,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>1111</v>
       </c>
@@ -826,6 +858,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>1111</v>
       </c>
@@ -849,6 +884,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>1111</v>
       </c>
@@ -872,6 +910,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
         <v>1111</v>
       </c>
@@ -895,6 +936,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>1112</v>
       </c>
@@ -912,6 +956,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>1112</v>
       </c>
@@ -935,6 +982,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>1112</v>
       </c>
@@ -958,6 +1008,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>1112</v>
       </c>
@@ -980,7 +1033,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>1112</v>
       </c>
@@ -1003,7 +1059,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>1112</v>
       </c>
@@ -1026,7 +1085,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>1112</v>
       </c>
@@ -1046,7 +1108,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>1112</v>
       </c>
@@ -1066,7 +1131,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>1112</v>
       </c>
@@ -1086,7 +1154,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>1112</v>
       </c>
@@ -1109,7 +1180,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>1113</v>
       </c>
@@ -1126,7 +1200,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>1113</v>
       </c>
@@ -1149,7 +1226,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>1113</v>
       </c>
@@ -1172,7 +1252,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>1113</v>
       </c>
@@ -1195,7 +1278,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>1114</v>
       </c>
@@ -1212,7 +1298,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>1114</v>
       </c>
@@ -1232,7 +1321,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>1114</v>
       </c>
@@ -1252,7 +1344,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>1115</v>
       </c>
@@ -1269,7 +1364,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>1115</v>
       </c>
@@ -1292,7 +1390,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>1115</v>
       </c>
@@ -1315,7 +1416,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>1115</v>
       </c>
@@ -1338,7 +1442,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34">
         <v>1115</v>
       </c>
@@ -1361,7 +1468,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35">
         <v>1200</v>
       </c>
@@ -1378,7 +1488,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>1210</v>
       </c>
@@ -1395,7 +1508,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37">
         <v>1220</v>
       </c>
@@ -1412,7 +1528,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38">
         <v>1220</v>
       </c>
@@ -1435,7 +1554,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39">
         <v>1220</v>
       </c>
@@ -1458,7 +1580,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40">
         <v>1220</v>
       </c>
@@ -1481,7 +1606,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41">
         <v>1220</v>
       </c>
@@ -1504,7 +1632,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42">
         <v>1230</v>
       </c>
@@ -1524,7 +1655,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43">
         <v>1240</v>
       </c>
@@ -1554,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,10 +1699,10 @@
     <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1588,16 +1722,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,11 +1744,11 @@
       <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>51</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,11 +1764,11 @@
       <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1650,11 +1784,11 @@
       <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,11 +1804,11 @@
       <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1687,11 +1821,11 @@
       <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>51</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1704,11 +1838,11 @@
       <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,11 +1855,11 @@
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,11 +1872,11 @@
       <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,11 +1889,11 @@
       <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1772,11 +1906,11 @@
       <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,11 +1926,11 @@
       <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1812,11 +1946,11 @@
       <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1832,11 +1966,11 @@
       <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1849,11 +1983,11 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>51</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,14 +2000,14 @@
       <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>51</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5201</v>
       </c>
@@ -1886,14 +2020,14 @@
       <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5201</v>
       </c>
@@ -1906,14 +2040,14 @@
       <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>5201</v>
       </c>
@@ -1926,14 +2060,14 @@
       <c r="E19" t="s">
         <v>70</v>
       </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5201</v>
       </c>
@@ -1946,14 +2080,14 @@
       <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5202</v>
       </c>
@@ -1963,14 +2097,14 @@
       <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5203</v>
       </c>
@@ -1980,14 +2114,14 @@
       <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>51</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5203</v>
       </c>
@@ -2000,14 +2134,14 @@
       <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5203</v>
       </c>
@@ -2020,14 +2154,14 @@
       <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5203</v>
       </c>
@@ -2040,14 +2174,14 @@
       <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5204</v>
       </c>
@@ -2057,14 +2191,14 @@
       <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>51</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5204</v>
       </c>
@@ -2077,14 +2211,14 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5204</v>
       </c>
@@ -2097,14 +2231,14 @@
       <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5204</v>
       </c>
@@ -2117,14 +2251,14 @@
       <c r="E29" t="s">
         <v>79</v>
       </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5204</v>
       </c>
@@ -2137,12 +2271,1845 @@
       <c r="E30" t="s">
         <v>80</v>
       </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1100</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1110</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1110</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1110</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1111</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1111</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1111</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1111</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1111</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1112</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1112</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1112</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1112</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1112</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1112</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1112</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1112</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1112</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1112</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1113</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1113</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1113</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1113</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1114</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1114</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1115</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1115</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1115</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1115</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1115</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1200</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1210</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1220</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1220</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1220</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1220</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1220</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1230</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1240</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4000</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5000</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5100</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5101</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5102</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5103</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5104</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5104</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5104</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5200</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5201</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5201</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5201</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5201</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5201</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5202</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5203</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5203</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5203</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5203</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5204</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5204</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5204</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5204</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5204</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
